--- a/usuarios.xlsx
+++ b/usuarios.xlsx
@@ -460,12 +460,12 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>aline fontes</t>
+          <t>jadir figueiredo</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>a.cfontes@hotmail.com</t>
+          <t>jadirf31@gmail.com</t>
         </is>
       </c>
     </row>

--- a/usuarios.xlsx
+++ b/usuarios.xlsx
@@ -7,7 +7,7 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="livro_escolhido" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B3"/>
+  <dimension ref="A1:F3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -444,6 +444,26 @@
           <t>Email</t>
         </is>
       </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>Título</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>Autor</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>Data</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>Gênero</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -453,9 +473,13 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>jadirrodriguesf@gmail.com</t>
-        </is>
-      </c>
+          <t>jadirf31@gmail.com</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr"/>
+      <c r="D2" t="inlineStr"/>
+      <c r="E2" t="inlineStr"/>
+      <c r="F2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -466,6 +490,26 @@
       <c r="B3" t="inlineStr">
         <is>
           <t>jadirf31@gmail.com</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>Dom Quixote</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>Miguel de Cervantes</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>1605</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>Romance de cavalaria</t>
         </is>
       </c>
     </row>

--- a/usuarios.xlsx
+++ b/usuarios.xlsx
@@ -7,7 +7,7 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="livro_escolhido" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -494,22 +494,22 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>Dom Quixote</t>
+          <t>O Médico e o Monstro</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>Miguel de Cervantes</t>
+          <t>Robert Louis Stevenson</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>1605</t>
+          <t>1886</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>Romance de cavalaria</t>
+          <t>Ficção gótica</t>
         </is>
       </c>
     </row>

--- a/usuarios.xlsx
+++ b/usuarios.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:F2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -481,38 +481,6 @@
       <c r="E2" t="inlineStr"/>
       <c r="F2" t="inlineStr"/>
     </row>
-    <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>jadir figueiredo</t>
-        </is>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>jadirf31@gmail.com</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>O Médico e o Monstro</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>Robert Louis Stevenson</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>1886</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>Ficção gótica</t>
-        </is>
-      </c>
-    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/usuarios.xlsx
+++ b/usuarios.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:F3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -481,6 +481,22 @@
       <c r="E2" t="inlineStr"/>
       <c r="F2" t="inlineStr"/>
     </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>aline fontes</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>a.cfontes@hotmail.com</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr"/>
+      <c r="D3" t="inlineStr"/>
+      <c r="E3" t="inlineStr"/>
+      <c r="F3" t="inlineStr"/>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
